--- a/archivo_plantilla resultados.xlsx
+++ b/archivo_plantilla resultados.xlsx
@@ -5,17 +5,26 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\programas py\PROGRAMA qmn\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Documents\programas py\base_line\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{DCEF6EFC-9E54-44E2-BD91-B59F211276CD}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6B212CE8-FD0C-495A-85EA-1868E7F44010}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20640" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="7" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Calculo QMN" sheetId="1" r:id="rId1"/>
     <sheet name="Data" sheetId="2" r:id="rId2"/>
+    <sheet name="LB" sheetId="3" r:id="rId3"/>
+    <sheet name="T( QMN)" sheetId="4" r:id="rId4"/>
+    <sheet name="PRESIONES VS RESULTADOS" sheetId="5" r:id="rId5"/>
+    <sheet name="Data6" sheetId="6" r:id="rId6"/>
+    <sheet name="resumen" sheetId="7" r:id="rId7"/>
+    <sheet name="Presiones" sheetId="8" r:id="rId8"/>
   </sheets>
+  <externalReferences>
+    <externalReference r:id="rId9"/>
+  </externalReferences>
   <definedNames>
     <definedName name="_xlnm.Print_Area" localSheetId="0">'Calculo QMN'!$A$1:$U$31</definedName>
   </definedNames>
@@ -35,7 +44,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="70" uniqueCount="55">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="115" uniqueCount="79">
   <si>
     <t>Nombre Proyecto</t>
   </si>
@@ -70,7 +79,7 @@
     <t>Sector Hidraulico</t>
   </si>
   <si>
-    <t>RBN-9A</t>
+    <t>RBS-22A</t>
   </si>
   <si>
     <t>Tipo - Sistema</t>
@@ -200,18 +209,93 @@
   </si>
   <si>
     <t>Linea Base en Volumen Diario</t>
+  </si>
+  <si>
+    <t>RBS-11</t>
+  </si>
+  <si>
+    <t>Estimación de las pérdidas físicas de agua recuperable      ( l/s)</t>
+  </si>
+  <si>
+    <t>Estimación de las pérdidas físicas de agua recuperable (l/s/km)</t>
+  </si>
+  <si>
+    <t>Estimación de las pérdidas físicas de agua recuperable        (m3/día)</t>
+  </si>
+  <si>
+    <t>Estimación de las pérdidas físicas de agua recuperable ( m3/día/km)</t>
+  </si>
+  <si>
+    <t>LINEA BASE</t>
+  </si>
+  <si>
+    <t>EVAL.RESULTADOS</t>
+  </si>
+  <si>
+    <t>Ahorro (*)</t>
+  </si>
+  <si>
+    <t>Fecha</t>
+  </si>
+  <si>
+    <t>Volumen</t>
+  </si>
+  <si>
+    <t>CMN l/s</t>
+  </si>
+  <si>
+    <t>Consumo</t>
+  </si>
+  <si>
+    <t>m3/Dia</t>
+  </si>
+  <si>
+    <t>Nocturno</t>
+  </si>
+  <si>
+    <t>Caudal Mínimo Nocturno promedio   l/s</t>
+  </si>
+  <si>
+    <t>Volumen diario promedio  m3/d</t>
+  </si>
+  <si>
+    <t>7 dias</t>
+  </si>
+  <si>
+    <t>fecha</t>
+  </si>
+  <si>
+    <t>presion dia  (m.c.a)</t>
+  </si>
+  <si>
+    <t>presion noche  (m.c.a)</t>
+  </si>
+  <si>
+    <t>PS</t>
+  </si>
+  <si>
+    <t>PPC</t>
+  </si>
+  <si>
+    <t>promedio</t>
+  </si>
+  <si>
+    <t>Promedio</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="3">
+  <numFmts count="6">
+    <numFmt numFmtId="41" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;_-;_-@_-"/>
+    <numFmt numFmtId="43" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
     <numFmt numFmtId="164" formatCode="_-* #,##0\ _€_-;\-* #,##0\ _€_-;_-* &quot;-&quot;??\ _€_-;_-@_-"/>
     <numFmt numFmtId="165" formatCode="0.0"/>
-    <numFmt numFmtId="166" formatCode="_-* #,##0.00\ _€_-;\-* #,##0.00\ _€_-;_-* &quot;-&quot;??\ _€_-;_-@_-"/>
+    <numFmt numFmtId="166" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;_-;_-@_-"/>
+    <numFmt numFmtId="167" formatCode="_-* #,##0.00\ _€_-;\-* #,##0.00\ _€_-;_-* &quot;-&quot;??\ _€_-;_-@_-"/>
   </numFmts>
-  <fonts count="10" x14ac:knownFonts="1">
+  <fonts count="14" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -286,6 +370,33 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <i/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <color theme="1"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+    </font>
   </fonts>
   <fills count="12">
     <fill>
@@ -355,7 +466,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="27">
+  <borders count="47">
     <border>
       <left/>
       <right/>
@@ -649,16 +760,283 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="2">
+  <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="166" fontId="1" fillId="0" borderId="0"/>
+    <xf numFmtId="167" fontId="1" fillId="0" borderId="0"/>
+    <xf numFmtId="41" fontId="1" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="112">
+  <cellXfs count="186">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -816,10 +1194,91 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="165" fontId="2" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="10" fillId="9" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="10" fillId="9" borderId="30" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="11" fillId="0" borderId="36" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="36" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="9" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="9" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="13" fillId="8" borderId="36" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="3" fontId="11" fillId="8" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="2" fontId="13" fillId="8" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="14" fontId="13" fillId="0" borderId="36" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="1" fontId="11" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="2" fontId="11" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="11" fillId="0" borderId="37" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="36" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="1" fontId="11" fillId="0" borderId="32" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="14" fontId="11" fillId="0" borderId="36" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="11" fillId="8" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="166" fontId="11" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="166" fontId="12" fillId="0" borderId="8" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="12" fillId="0" borderId="37" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="11" fillId="0" borderId="8" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="11" fillId="0" borderId="37" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="12" fillId="2" borderId="36" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="12" fillId="2" borderId="8" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="12" fillId="2" borderId="37" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="12" fillId="9" borderId="30" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="46" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
     <xf numFmtId="2" fontId="4" fillId="10" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -891,9 +1350,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
@@ -903,9 +1359,102 @@
     <xf numFmtId="17" fontId="0" fillId="2" borderId="8" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="165" fontId="11" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="34" xfId="0" applyBorder="1"/>
+    <xf numFmtId="166" fontId="11" fillId="0" borderId="8" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="11" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="11" fillId="0" borderId="37" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="35" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="36" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="33" xfId="0" applyBorder="1"/>
+    <xf numFmtId="2" fontId="12" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="43" fontId="12" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="12" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="9" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="9" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="165" fontId="11" fillId="0" borderId="34" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="166" fontId="11" fillId="0" borderId="34" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="11" fillId="0" borderId="34" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="11" fillId="0" borderId="35" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="11" fillId="0" borderId="37" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="43" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="44" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="45" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="38" xfId="0" applyBorder="1"/>
+    <xf numFmtId="14" fontId="10" fillId="9" borderId="27" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="39" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="40" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="10" fillId="9" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="9" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="166" fontId="12" fillId="9" borderId="31" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="41" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="42" xfId="0" applyBorder="1"/>
+    <xf numFmtId="166" fontId="12" fillId="9" borderId="31" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="12" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="12" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="12" fillId="0" borderId="28" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="12" fillId="0" borderId="27" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="2">
+  <cellStyles count="3">
     <cellStyle name="Millares" xfId="1" builtinId="3"/>
+    <cellStyle name="Millares [0]" xfId="2" builtinId="6"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -919,6 +1468,117 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/externalLinks/externalLink1.xml><?xml version="1.0" encoding="utf-8"?>
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
+  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
+    <sheetNames>
+      <sheetName val="LINEA BASE Balance - ANTES"/>
+      <sheetName val="LINEA BASE Balance - AFTER"/>
+      <sheetName val="NRW-IANC Results"/>
+      <sheetName val="MNF Graph Results"/>
+      <sheetName val="Data BASELINE"/>
+      <sheetName val="Data AFTER"/>
+      <sheetName val="data"/>
+      <sheetName val="Calculo"/>
+      <sheetName val="Hoja5"/>
+      <sheetName val="Hoja1"/>
+      <sheetName val="C ( CAUDALES)"/>
+      <sheetName val="T( QMN)"/>
+      <sheetName val="C( PRESIONES)"/>
+      <sheetName val="PRESIONES VS RESULTADOS"/>
+    </sheetNames>
+    <sheetDataSet>
+      <sheetData sheetId="0"/>
+      <sheetData sheetId="1"/>
+      <sheetData sheetId="2"/>
+      <sheetData sheetId="3"/>
+      <sheetData sheetId="4"/>
+      <sheetData sheetId="5"/>
+      <sheetData sheetId="6">
+        <row r="12">
+          <cell r="Y12" t="str">
+            <v/>
+          </cell>
+          <cell r="AA12" t="str">
+            <v/>
+          </cell>
+          <cell r="AB12" t="str">
+            <v/>
+          </cell>
+          <cell r="AQ12" t="str">
+            <v/>
+          </cell>
+        </row>
+      </sheetData>
+      <sheetData sheetId="7">
+        <row r="2">
+          <cell r="D2">
+            <v>44379</v>
+          </cell>
+        </row>
+        <row r="4">
+          <cell r="K4">
+            <v>50.35</v>
+          </cell>
+        </row>
+        <row r="18">
+          <cell r="D18">
+            <v>44405</v>
+          </cell>
+        </row>
+        <row r="27">
+          <cell r="B27">
+            <v>14.516911843442108</v>
+          </cell>
+        </row>
+      </sheetData>
+      <sheetData sheetId="8"/>
+      <sheetData sheetId="9"/>
+      <sheetData sheetId="10"/>
+      <sheetData sheetId="11">
+        <row r="7">
+          <cell r="F7">
+            <v>44405</v>
+          </cell>
+        </row>
+        <row r="8">
+          <cell r="F8">
+            <v>44406</v>
+          </cell>
+        </row>
+        <row r="9">
+          <cell r="F9">
+            <v>44407</v>
+          </cell>
+        </row>
+        <row r="10">
+          <cell r="F10">
+            <v>44408</v>
+          </cell>
+        </row>
+        <row r="11">
+          <cell r="F11">
+            <v>44409</v>
+          </cell>
+        </row>
+        <row r="12">
+          <cell r="F12">
+            <v>44410</v>
+          </cell>
+        </row>
+        <row r="13">
+          <cell r="F13">
+            <v>44411</v>
+          </cell>
+        </row>
+      </sheetData>
+      <sheetData sheetId="12"/>
+      <sheetData sheetId="13"/>
+    </sheetDataSet>
+  </externalBook>
+</externalLink>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1224,662 +1884,660 @@
   </sheetPr>
   <dimension ref="A1:U31"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="Q4" sqref="Q4:R4"/>
+    <sheetView showGridLines="0" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="G22" sqref="G22:K22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="5.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="5.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="2.42578125" style="73" customWidth="1"/>
-    <col min="4" max="4" width="7.140625" style="73" customWidth="1"/>
-    <col min="5" max="5" width="10" style="73" customWidth="1"/>
-    <col min="6" max="6" width="5.5703125" style="73" customWidth="1"/>
-    <col min="7" max="7" width="6.5703125" style="73" customWidth="1"/>
-    <col min="9" max="9" width="4.42578125" style="73" customWidth="1"/>
-    <col min="11" max="11" width="6.42578125" style="73" customWidth="1"/>
-    <col min="12" max="12" width="6.140625" style="73" customWidth="1"/>
-    <col min="15" max="15" width="12.28515625" style="73" customWidth="1"/>
-    <col min="16" max="16" width="6.85546875" style="73" customWidth="1"/>
-    <col min="17" max="17" width="7.5703125" style="73" customWidth="1"/>
-    <col min="18" max="18" width="9.140625" style="73" customWidth="1"/>
-    <col min="19" max="19" width="7" style="73" customWidth="1"/>
-    <col min="20" max="20" width="6.42578125" style="73" customWidth="1"/>
-    <col min="21" max="21" width="12" style="73" customWidth="1"/>
+    <col min="1" max="1" width="2.44140625" style="107" customWidth="1"/>
+    <col min="4" max="4" width="7.109375" style="107" customWidth="1"/>
+    <col min="5" max="5" width="10" style="107" customWidth="1"/>
+    <col min="6" max="6" width="5.5546875" style="107" customWidth="1"/>
+    <col min="7" max="7" width="6.5546875" style="107" customWidth="1"/>
+    <col min="9" max="9" width="4.44140625" style="107" customWidth="1"/>
+    <col min="11" max="11" width="6.44140625" style="107" customWidth="1"/>
+    <col min="12" max="12" width="6.109375" style="107" customWidth="1"/>
+    <col min="15" max="15" width="12.33203125" style="107" customWidth="1"/>
+    <col min="16" max="16" width="6.88671875" style="107" customWidth="1"/>
+    <col min="17" max="17" width="7.5546875" style="107" customWidth="1"/>
+    <col min="18" max="18" width="9.109375" style="107" customWidth="1"/>
+    <col min="19" max="19" width="7" style="107" customWidth="1"/>
+    <col min="20" max="20" width="6.44140625" style="107" customWidth="1"/>
+    <col min="21" max="21" width="12" style="107" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:21" ht="8.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:21" ht="8.1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="1"/>
-      <c r="B1" s="2"/>
-      <c r="C1" s="2"/>
-      <c r="D1" s="2"/>
-      <c r="E1" s="2"/>
-      <c r="F1" s="2"/>
-      <c r="G1" s="2"/>
-      <c r="H1" s="2"/>
-      <c r="I1" s="2"/>
-      <c r="J1" s="2"/>
-      <c r="K1" s="2"/>
-      <c r="L1" s="2"/>
-      <c r="M1" s="2"/>
-      <c r="N1" s="2"/>
-      <c r="O1" s="2"/>
-      <c r="P1" s="2"/>
-      <c r="Q1" s="2"/>
-      <c r="R1" s="2"/>
-      <c r="S1" s="2"/>
-      <c r="T1" s="2"/>
-      <c r="U1" s="3"/>
-    </row>
-    <row r="2" spans="1:21" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="4"/>
-      <c r="B2" s="5" t="s">
+      <c r="B1" s="112"/>
+      <c r="C1" s="112"/>
+      <c r="D1" s="112"/>
+      <c r="E1" s="112"/>
+      <c r="F1" s="112"/>
+      <c r="G1" s="112"/>
+      <c r="H1" s="112"/>
+      <c r="I1" s="112"/>
+      <c r="J1" s="112"/>
+      <c r="K1" s="112"/>
+      <c r="L1" s="112"/>
+      <c r="M1" s="112"/>
+      <c r="N1" s="112"/>
+      <c r="O1" s="112"/>
+      <c r="P1" s="112"/>
+      <c r="Q1" s="112"/>
+      <c r="R1" s="112"/>
+      <c r="S1" s="112"/>
+      <c r="T1" s="112"/>
+      <c r="U1" s="113"/>
+    </row>
+    <row r="2" spans="1:21" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="2"/>
+      <c r="B2" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="5"/>
-      <c r="D2" s="5"/>
-      <c r="E2" s="102" t="s">
+      <c r="C2" s="3"/>
+      <c r="D2" s="3"/>
+      <c r="E2" s="139" t="s">
         <v>1</v>
       </c>
-      <c r="F2" s="103"/>
-      <c r="G2" s="103"/>
-      <c r="H2" s="103"/>
-      <c r="I2" s="96"/>
-      <c r="L2" s="5" t="s">
+      <c r="F2" s="140"/>
+      <c r="G2" s="140"/>
+      <c r="H2" s="140"/>
+      <c r="I2" s="133"/>
+      <c r="L2" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="U2" s="74"/>
-    </row>
-    <row r="3" spans="1:21" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="4"/>
-      <c r="B3" s="5" t="s">
+      <c r="U2" s="111"/>
+    </row>
+    <row r="3" spans="1:21" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="2"/>
+      <c r="B3" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="C3" s="5"/>
-      <c r="D3" s="5"/>
-      <c r="E3" s="102" t="s">
+      <c r="C3" s="3"/>
+      <c r="D3" s="3"/>
+      <c r="E3" s="139" t="s">
         <v>4</v>
       </c>
-      <c r="F3" s="103"/>
-      <c r="G3" s="103"/>
-      <c r="H3" s="103"/>
-      <c r="I3" s="96"/>
-      <c r="J3" s="109" t="s">
+      <c r="F3" s="140"/>
+      <c r="G3" s="140"/>
+      <c r="H3" s="140"/>
+      <c r="I3" s="133"/>
+      <c r="J3" s="145" t="s">
         <v>5</v>
       </c>
-      <c r="K3" s="78"/>
-      <c r="L3" s="78"/>
-      <c r="M3" s="105"/>
-      <c r="N3" s="111">
+      <c r="K3" s="115"/>
+      <c r="L3" s="115"/>
+      <c r="M3" s="142"/>
+      <c r="N3" s="147">
         <f>+N4</f>
         <v>0</v>
       </c>
-      <c r="O3" s="96"/>
-      <c r="P3" s="6" t="s">
+      <c r="O3" s="133"/>
+      <c r="P3" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="Q3" s="111">
+      <c r="Q3" s="147">
         <f>+Q4</f>
         <v>0</v>
       </c>
-      <c r="R3" s="96"/>
-      <c r="U3" s="74"/>
-    </row>
-    <row r="4" spans="1:21" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="4"/>
-      <c r="B4" s="5" t="s">
+      <c r="R3" s="133"/>
+      <c r="U3" s="111"/>
+    </row>
+    <row r="4" spans="1:21" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="2"/>
+      <c r="B4" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="C4" s="5"/>
-      <c r="D4" s="5"/>
-      <c r="E4" s="102" t="s">
+      <c r="C4" s="3"/>
+      <c r="D4" s="3"/>
+      <c r="E4" s="139" t="s">
         <v>8</v>
       </c>
-      <c r="F4" s="103"/>
-      <c r="G4" s="103"/>
-      <c r="H4" s="103"/>
-      <c r="I4" s="96"/>
-      <c r="J4" s="109" t="s">
+      <c r="F4" s="140"/>
+      <c r="G4" s="140"/>
+      <c r="H4" s="140"/>
+      <c r="I4" s="133"/>
+      <c r="J4" s="145" t="s">
         <v>9</v>
       </c>
-      <c r="K4" s="78"/>
-      <c r="L4" s="78"/>
-      <c r="M4" s="105"/>
-      <c r="N4" s="110"/>
-      <c r="O4" s="96"/>
-      <c r="P4" s="6" t="s">
+      <c r="K4" s="115"/>
+      <c r="L4" s="115"/>
+      <c r="M4" s="142"/>
+      <c r="N4" s="146"/>
+      <c r="O4" s="133"/>
+      <c r="P4" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="Q4" s="110"/>
-      <c r="R4" s="96"/>
-      <c r="U4" s="74"/>
-    </row>
-    <row r="5" spans="1:21" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="4"/>
-      <c r="B5" s="5" t="s">
+      <c r="Q4" s="146"/>
+      <c r="R4" s="133"/>
+      <c r="U4" s="111"/>
+    </row>
+    <row r="5" spans="1:21" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A5" s="2"/>
+      <c r="B5" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="C5" s="5"/>
-      <c r="D5" s="5"/>
-      <c r="E5" s="102" t="s">
+      <c r="C5" s="3"/>
+      <c r="D5" s="3"/>
+      <c r="E5" s="139" t="s">
         <v>11</v>
       </c>
-      <c r="F5" s="103"/>
-      <c r="G5" s="103"/>
-      <c r="H5" s="103"/>
-      <c r="I5" s="96"/>
-      <c r="U5" s="74"/>
-    </row>
-    <row r="6" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A6" s="4"/>
-      <c r="E6" s="67"/>
-      <c r="F6" s="67"/>
-      <c r="G6" s="67"/>
-      <c r="H6" s="67"/>
-      <c r="I6" s="67"/>
-      <c r="U6" s="74"/>
-    </row>
-    <row r="7" spans="1:21" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="4"/>
+      <c r="F5" s="140"/>
+      <c r="G5" s="140"/>
+      <c r="H5" s="140"/>
+      <c r="I5" s="133"/>
+      <c r="U5" s="111"/>
+    </row>
+    <row r="6" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="A6" s="2"/>
+      <c r="E6" s="65"/>
+      <c r="F6" s="65"/>
+      <c r="G6" s="65"/>
+      <c r="H6" s="65"/>
+      <c r="I6" s="65"/>
+      <c r="U6" s="111"/>
+    </row>
+    <row r="7" spans="1:21" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A7" s="2"/>
       <c r="B7" t="s">
         <v>12</v>
       </c>
-      <c r="E7" s="104" t="s">
+      <c r="E7" s="141" t="s">
         <v>13</v>
       </c>
-      <c r="F7" s="78"/>
-      <c r="G7" s="105"/>
-      <c r="H7" s="7"/>
-      <c r="J7" s="106" t="s">
+      <c r="F7" s="115"/>
+      <c r="G7" s="142"/>
+      <c r="H7" s="5"/>
+      <c r="J7" s="143" t="s">
         <v>14</v>
       </c>
-      <c r="K7" s="105"/>
-      <c r="L7" s="8"/>
-      <c r="M7" s="107" t="s">
+      <c r="K7" s="142"/>
+      <c r="L7" s="6"/>
+      <c r="M7" s="144" t="s">
         <v>15</v>
       </c>
-      <c r="N7" s="105"/>
-      <c r="O7" s="9" t="s">
+      <c r="N7" s="142"/>
+      <c r="O7" s="7" t="s">
         <v>16</v>
       </c>
-      <c r="P7" s="52" t="s">
+      <c r="P7" s="50" t="s">
         <v>17</v>
       </c>
-      <c r="Q7" s="8"/>
-      <c r="R7" s="52" t="s">
+      <c r="Q7" s="6"/>
+      <c r="R7" s="50" t="s">
         <v>18</v>
       </c>
-      <c r="S7" s="8"/>
-      <c r="U7" s="74"/>
-    </row>
-    <row r="8" spans="1:21" ht="9" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="4"/>
-      <c r="U8" s="74"/>
-    </row>
-    <row r="9" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A9" s="4"/>
+      <c r="S7" s="6"/>
+      <c r="U7" s="111"/>
+    </row>
+    <row r="8" spans="1:21" ht="9" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A8" s="2"/>
+      <c r="U8" s="111"/>
+    </row>
+    <row r="9" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="A9" s="2"/>
       <c r="B9" t="s">
         <v>19</v>
       </c>
-      <c r="E9" s="108"/>
-      <c r="F9" s="96"/>
+      <c r="E9" s="106"/>
+      <c r="F9" s="109"/>
       <c r="G9" t="s">
         <v>20</v>
       </c>
       <c r="I9" t="s">
         <v>21</v>
       </c>
-      <c r="M9" s="97"/>
-      <c r="N9" s="96"/>
-      <c r="U9" s="74"/>
-    </row>
-    <row r="10" spans="1:21" ht="6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="4"/>
-      <c r="M10" s="71"/>
-      <c r="N10" s="71"/>
-      <c r="U10" s="74"/>
-    </row>
-    <row r="11" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A11" s="4"/>
+      <c r="M9" s="134"/>
+      <c r="N9" s="133"/>
+      <c r="U9" s="111"/>
+    </row>
+    <row r="10" spans="1:21" ht="6" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A10" s="2"/>
+      <c r="M10" s="69"/>
+      <c r="N10" s="69"/>
+      <c r="U10" s="111"/>
+    </row>
+    <row r="11" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="A11" s="2"/>
       <c r="B11" t="s">
         <v>22</v>
       </c>
-      <c r="E11" s="95" t="str">
+      <c r="E11" s="132" t="str">
         <f>IF(E9="","",M9/E9)</f>
         <v/>
       </c>
-      <c r="F11" s="96"/>
+      <c r="F11" s="133"/>
       <c r="G11" t="s">
         <v>23</v>
       </c>
       <c r="I11" t="s">
         <v>24</v>
       </c>
-      <c r="M11" s="97">
+      <c r="M11" s="134">
         <f>+M9*4</f>
         <v>0</v>
       </c>
-      <c r="N11" s="96"/>
-      <c r="U11" s="74"/>
-    </row>
-    <row r="12" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A12" s="4"/>
-      <c r="U12" s="74"/>
-    </row>
-    <row r="13" spans="1:21" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="4"/>
-      <c r="B13" s="10" t="s">
+      <c r="N11" s="133"/>
+      <c r="U11" s="111"/>
+    </row>
+    <row r="12" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="A12" s="2"/>
+      <c r="U12" s="111"/>
+    </row>
+    <row r="13" spans="1:21" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A13" s="2"/>
+      <c r="B13" s="8" t="s">
         <v>25</v>
       </c>
-      <c r="C13" s="11"/>
-      <c r="D13" s="11"/>
-      <c r="E13" s="11"/>
-      <c r="F13" s="11"/>
-      <c r="G13" s="11"/>
-      <c r="H13" s="11"/>
-      <c r="I13" s="11"/>
-      <c r="J13" s="11"/>
-      <c r="K13" s="11"/>
-      <c r="L13" s="11"/>
-      <c r="M13" s="11"/>
-      <c r="N13" s="11"/>
-      <c r="O13" s="11"/>
-      <c r="P13" s="11"/>
-      <c r="Q13" s="11"/>
-      <c r="R13" s="11"/>
-      <c r="S13" s="11"/>
-      <c r="T13" s="11"/>
-      <c r="U13" s="12"/>
-    </row>
-    <row r="14" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A14" s="4"/>
-      <c r="U14" s="74"/>
-    </row>
-    <row r="15" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A15" s="4"/>
+      <c r="C13" s="9"/>
+      <c r="D13" s="9"/>
+      <c r="E13" s="9"/>
+      <c r="F13" s="9"/>
+      <c r="G13" s="9"/>
+      <c r="H13" s="9"/>
+      <c r="I13" s="9"/>
+      <c r="J13" s="9"/>
+      <c r="K13" s="9"/>
+      <c r="L13" s="9"/>
+      <c r="M13" s="9"/>
+      <c r="N13" s="9"/>
+      <c r="O13" s="9"/>
+      <c r="P13" s="9"/>
+      <c r="Q13" s="9"/>
+      <c r="R13" s="9"/>
+      <c r="S13" s="9"/>
+      <c r="T13" s="9"/>
+      <c r="U13" s="10"/>
+    </row>
+    <row r="14" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="A14" s="2"/>
+      <c r="U14" s="111"/>
+    </row>
+    <row r="15" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="A15" s="2"/>
       <c r="B15" t="s">
         <v>26</v>
       </c>
-      <c r="G15" s="62"/>
+      <c r="G15" s="60"/>
       <c r="H15" t="s">
         <v>27</v>
       </c>
       <c r="J15" t="s">
         <v>28</v>
       </c>
-      <c r="Q15" s="62"/>
+      <c r="Q15" s="60"/>
       <c r="R15" t="s">
         <v>27</v>
       </c>
-      <c r="U15" s="74"/>
-    </row>
-    <row r="16" spans="1:21" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="4"/>
-      <c r="U16" s="74"/>
-    </row>
-    <row r="17" spans="1:21" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="4"/>
+      <c r="U15" s="111"/>
+    </row>
+    <row r="16" spans="1:21" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A16" s="2"/>
+      <c r="U16" s="111"/>
+    </row>
+    <row r="17" spans="1:21" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A17" s="2"/>
       <c r="B17" t="s">
         <v>29</v>
       </c>
-      <c r="D17" s="62"/>
-      <c r="F17" s="5" t="s">
+      <c r="D17" s="60"/>
+      <c r="F17" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="G17" s="98"/>
-      <c r="H17" s="99"/>
-      <c r="I17" s="5" t="s">
+      <c r="G17" s="135"/>
+      <c r="H17" s="136"/>
+      <c r="I17" s="3" t="s">
         <v>31</v>
       </c>
-      <c r="K17" s="13" t="s">
+      <c r="K17" s="11" t="s">
         <v>32</v>
       </c>
-      <c r="L17" s="72"/>
+      <c r="L17" s="70"/>
       <c r="N17" t="s">
         <v>33</v>
       </c>
-      <c r="O17" s="63"/>
+      <c r="O17" s="61"/>
       <c r="P17" t="s">
         <v>31</v>
       </c>
       <c r="R17" t="s">
         <v>34</v>
       </c>
-      <c r="S17" s="70"/>
-      <c r="U17" s="74"/>
-    </row>
-    <row r="18" spans="1:21" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A18" s="4"/>
-      <c r="U18" s="74"/>
-    </row>
-    <row r="19" spans="1:21" ht="19.350000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A19" s="4"/>
-      <c r="B19" s="100" t="s">
+      <c r="S17" s="68"/>
+      <c r="U17" s="111"/>
+    </row>
+    <row r="18" spans="1:21" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A18" s="2"/>
+      <c r="U18" s="111"/>
+    </row>
+    <row r="19" spans="1:21" ht="19.350000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A19" s="2"/>
+      <c r="B19" s="137" t="s">
         <v>35</v>
       </c>
-      <c r="C19" s="85"/>
-      <c r="D19" s="85"/>
-      <c r="E19" s="85"/>
-      <c r="F19" s="91"/>
-      <c r="G19" s="101" t="s">
+      <c r="C19" s="122"/>
+      <c r="D19" s="122"/>
+      <c r="E19" s="122"/>
+      <c r="F19" s="128"/>
+      <c r="G19" s="138" t="s">
         <v>36</v>
       </c>
-      <c r="H19" s="85"/>
-      <c r="I19" s="85"/>
-      <c r="J19" s="85"/>
-      <c r="K19" s="85"/>
-      <c r="L19" s="85"/>
-      <c r="M19" s="91"/>
-      <c r="N19" s="14" t="s">
+      <c r="H19" s="122"/>
+      <c r="I19" s="122"/>
+      <c r="J19" s="122"/>
+      <c r="K19" s="122"/>
+      <c r="L19" s="122"/>
+      <c r="M19" s="128"/>
+      <c r="N19" s="12" t="s">
         <v>37</v>
       </c>
-      <c r="O19" s="15"/>
-      <c r="P19" s="15"/>
-      <c r="Q19" s="65"/>
-      <c r="R19" s="76"/>
-      <c r="S19" s="64"/>
-      <c r="T19" s="75" t="s">
+      <c r="O19" s="13"/>
+      <c r="P19" s="13"/>
+      <c r="Q19" s="63"/>
+      <c r="R19" s="108"/>
+      <c r="S19" s="62"/>
+      <c r="T19" s="110" t="s">
         <v>31</v>
       </c>
-      <c r="U19" s="74"/>
-    </row>
-    <row r="20" spans="1:21" ht="19.350000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A20" s="4"/>
-      <c r="B20" s="92"/>
-      <c r="C20" s="78"/>
-      <c r="D20" s="78"/>
-      <c r="E20" s="78"/>
-      <c r="F20" s="79"/>
-      <c r="G20" s="94"/>
-      <c r="H20" s="83"/>
-      <c r="I20" s="83"/>
-      <c r="J20" s="83"/>
-      <c r="K20" s="83"/>
-      <c r="L20" s="16" t="s">
+      <c r="U19" s="111"/>
+    </row>
+    <row r="20" spans="1:21" ht="19.350000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A20" s="2"/>
+      <c r="B20" s="129"/>
+      <c r="C20" s="115"/>
+      <c r="D20" s="115"/>
+      <c r="E20" s="115"/>
+      <c r="F20" s="116"/>
+      <c r="G20" s="131"/>
+      <c r="H20" s="120"/>
+      <c r="I20" s="120"/>
+      <c r="J20" s="120"/>
+      <c r="K20" s="120"/>
+      <c r="L20" s="14" t="s">
         <v>31</v>
       </c>
-      <c r="M20" s="17"/>
-      <c r="N20" s="18" t="s">
+      <c r="M20" s="15"/>
+      <c r="N20" s="16" t="s">
         <v>38</v>
       </c>
-      <c r="O20" s="15"/>
-      <c r="P20" s="15"/>
-      <c r="Q20" s="65"/>
-      <c r="R20" s="76"/>
-      <c r="S20" s="64"/>
-      <c r="T20" s="75" t="s">
+      <c r="O20" s="13"/>
+      <c r="P20" s="13"/>
+      <c r="Q20" s="63"/>
+      <c r="R20" s="108"/>
+      <c r="S20" s="62"/>
+      <c r="T20" s="110" t="s">
         <v>31</v>
       </c>
-      <c r="U20" s="74"/>
-    </row>
-    <row r="21" spans="1:21" ht="19.350000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A21" s="4"/>
-      <c r="B21" s="53"/>
-      <c r="C21" s="54"/>
-      <c r="D21" s="54">
+      <c r="U20" s="111"/>
+    </row>
+    <row r="21" spans="1:21" ht="19.350000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A21" s="2"/>
+      <c r="B21" s="51"/>
+      <c r="C21" s="52"/>
+      <c r="D21" s="52">
         <f>G17</f>
         <v>0</v>
       </c>
-      <c r="E21" s="54" t="s">
+      <c r="E21" s="52" t="s">
         <v>31</v>
       </c>
-      <c r="F21" s="55"/>
-      <c r="G21" s="87" t="s">
+      <c r="F21" s="53"/>
+      <c r="G21" s="124" t="s">
         <v>39</v>
       </c>
-      <c r="H21" s="78"/>
-      <c r="I21" s="78"/>
-      <c r="J21" s="78"/>
-      <c r="K21" s="78"/>
-      <c r="L21" s="78"/>
-      <c r="M21" s="79"/>
-      <c r="N21" s="19" t="s">
+      <c r="H21" s="115"/>
+      <c r="I21" s="115"/>
+      <c r="J21" s="115"/>
+      <c r="K21" s="115"/>
+      <c r="L21" s="115"/>
+      <c r="M21" s="116"/>
+      <c r="N21" s="17" t="s">
         <v>40</v>
       </c>
-      <c r="O21" s="20"/>
-      <c r="P21" s="20"/>
-      <c r="Q21" s="21"/>
-      <c r="R21" s="22"/>
-      <c r="S21" s="66" t="e">
+      <c r="O21" s="18"/>
+      <c r="P21" s="18"/>
+      <c r="Q21" s="19"/>
+      <c r="R21" s="20"/>
+      <c r="S21" s="64" t="e">
         <f>+D21-D27-S19</f>
         <v>#VALUE!</v>
       </c>
-      <c r="T21" s="23" t="s">
+      <c r="T21" s="21" t="s">
         <v>31</v>
       </c>
-      <c r="U21" s="24" t="s">
+      <c r="U21" s="22" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="22" spans="1:21" ht="19.350000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A22" s="4"/>
-      <c r="B22" s="53"/>
-      <c r="C22" s="54"/>
-      <c r="D22" s="54"/>
-      <c r="E22" s="54"/>
-      <c r="F22" s="55"/>
-      <c r="G22" s="88"/>
-      <c r="H22" s="78"/>
-      <c r="I22" s="78"/>
-      <c r="J22" s="78"/>
-      <c r="K22" s="78"/>
-      <c r="L22" s="56" t="s">
+    <row r="22" spans="1:21" ht="19.350000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A22" s="2"/>
+      <c r="B22" s="51"/>
+      <c r="C22" s="52"/>
+      <c r="D22" s="52"/>
+      <c r="E22" s="52"/>
+      <c r="F22" s="53"/>
+      <c r="G22" s="125"/>
+      <c r="H22" s="115"/>
+      <c r="I22" s="115"/>
+      <c r="J22" s="115"/>
+      <c r="K22" s="115"/>
+      <c r="L22" s="54" t="s">
         <v>31</v>
       </c>
-      <c r="M22" s="57"/>
-      <c r="N22" s="25" t="s">
+      <c r="M22" s="55"/>
+      <c r="N22" s="23" t="s">
         <v>42</v>
       </c>
-      <c r="O22" s="26"/>
-      <c r="P22" s="26"/>
-      <c r="Q22" s="27"/>
-      <c r="R22" s="28"/>
-      <c r="S22" s="64" t="str">
+      <c r="O22" s="24"/>
+      <c r="P22" s="24"/>
+      <c r="Q22" s="25"/>
+      <c r="R22" s="26"/>
+      <c r="S22" s="62" t="str">
         <f>IF(G22="","",G22-S21-S23)</f>
         <v/>
       </c>
-      <c r="T22" s="29" t="s">
+      <c r="T22" s="27" t="s">
         <v>31</v>
       </c>
-      <c r="U22" s="24" t="s">
+      <c r="U22" s="22" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="23" spans="1:21" ht="19.350000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A23" s="4"/>
-      <c r="B23" s="30"/>
-      <c r="C23" s="31"/>
-      <c r="D23" s="31"/>
-      <c r="E23" s="31"/>
-      <c r="F23" s="32"/>
-      <c r="G23" s="89"/>
-      <c r="H23" s="83"/>
-      <c r="I23" s="83"/>
-      <c r="J23" s="83"/>
-      <c r="K23" s="83"/>
-      <c r="L23" s="58"/>
-      <c r="M23" s="33"/>
-      <c r="N23" s="14" t="s">
+    <row r="23" spans="1:21" ht="19.350000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A23" s="2"/>
+      <c r="B23" s="28"/>
+      <c r="C23" s="29"/>
+      <c r="D23" s="29"/>
+      <c r="E23" s="29"/>
+      <c r="F23" s="30"/>
+      <c r="G23" s="126"/>
+      <c r="H23" s="120"/>
+      <c r="I23" s="120"/>
+      <c r="J23" s="120"/>
+      <c r="K23" s="120"/>
+      <c r="L23" s="56"/>
+      <c r="M23" s="31"/>
+      <c r="N23" s="12" t="s">
         <v>44</v>
       </c>
-      <c r="O23" s="15"/>
-      <c r="P23" s="15"/>
-      <c r="Q23" s="65"/>
-      <c r="R23" s="76"/>
-      <c r="S23" s="64"/>
-      <c r="T23" s="75" t="s">
+      <c r="O23" s="13"/>
+      <c r="P23" s="13"/>
+      <c r="Q23" s="63"/>
+      <c r="R23" s="108"/>
+      <c r="S23" s="62"/>
+      <c r="T23" s="110" t="s">
         <v>31</v>
       </c>
-      <c r="U23" s="24"/>
-    </row>
-    <row r="24" spans="1:21" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A24" s="4"/>
-      <c r="U24" s="74"/>
-    </row>
-    <row r="25" spans="1:21" ht="18.600000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A25" s="4"/>
-      <c r="B25" s="90" t="s">
+      <c r="U23" s="22"/>
+    </row>
+    <row r="24" spans="1:21" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A24" s="2"/>
+      <c r="U24" s="111"/>
+    </row>
+    <row r="25" spans="1:21" ht="18.600000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A25" s="2"/>
+      <c r="B25" s="127" t="s">
         <v>45</v>
       </c>
-      <c r="C25" s="85"/>
-      <c r="D25" s="85"/>
-      <c r="E25" s="85"/>
-      <c r="F25" s="91"/>
-      <c r="G25" s="93" t="s">
+      <c r="C25" s="122"/>
+      <c r="D25" s="122"/>
+      <c r="E25" s="122"/>
+      <c r="F25" s="128"/>
+      <c r="G25" s="130" t="s">
         <v>46</v>
       </c>
-      <c r="H25" s="85"/>
-      <c r="I25" s="85"/>
-      <c r="J25" s="85"/>
-      <c r="K25" s="85"/>
-      <c r="L25" s="85"/>
-      <c r="M25" s="91"/>
-      <c r="O25" s="34" t="s">
+      <c r="H25" s="122"/>
+      <c r="I25" s="122"/>
+      <c r="J25" s="122"/>
+      <c r="K25" s="122"/>
+      <c r="L25" s="122"/>
+      <c r="M25" s="128"/>
+      <c r="O25" s="32" t="s">
         <v>47</v>
       </c>
-      <c r="P25" s="22"/>
-      <c r="Q25" s="22"/>
-      <c r="R25" s="35" t="str">
+      <c r="P25" s="20"/>
+      <c r="Q25" s="20"/>
+      <c r="R25" s="33" t="str">
         <f>IF(G17="","",D27/E9)</f>
         <v/>
       </c>
-      <c r="S25" s="36" t="s">
+      <c r="S25" s="34" t="s">
         <v>48</v>
       </c>
-      <c r="T25" s="23"/>
-      <c r="U25" s="74"/>
-    </row>
-    <row r="26" spans="1:21" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A26" s="4"/>
-      <c r="B26" s="92"/>
-      <c r="C26" s="78"/>
-      <c r="D26" s="78"/>
-      <c r="E26" s="78"/>
-      <c r="F26" s="79"/>
-      <c r="G26" s="94">
+      <c r="T25" s="21"/>
+      <c r="U25" s="111"/>
+    </row>
+    <row r="26" spans="1:21" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A26" s="2"/>
+      <c r="B26" s="129"/>
+      <c r="C26" s="115"/>
+      <c r="D26" s="115"/>
+      <c r="E26" s="115"/>
+      <c r="F26" s="116"/>
+      <c r="G26" s="131">
         <f>S20</f>
         <v>0</v>
       </c>
-      <c r="H26" s="83"/>
-      <c r="I26" s="83"/>
-      <c r="J26" s="83"/>
-      <c r="K26" s="83"/>
-      <c r="L26" s="68" t="s">
+      <c r="H26" s="120"/>
+      <c r="I26" s="120"/>
+      <c r="J26" s="120"/>
+      <c r="K26" s="120"/>
+      <c r="L26" s="66" t="s">
         <v>31</v>
       </c>
-      <c r="M26" s="37"/>
-      <c r="O26" s="38" t="s">
+      <c r="M26" s="35"/>
+      <c r="O26" s="36" t="s">
         <v>49</v>
       </c>
-      <c r="U26" s="74"/>
-    </row>
-    <row r="27" spans="1:21" ht="17.45" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A27" s="4"/>
-      <c r="B27" s="59"/>
-      <c r="C27" s="60"/>
-      <c r="D27" s="60" t="str">
+      <c r="U26" s="111"/>
+    </row>
+    <row r="27" spans="1:21" ht="17.399999999999999" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A27" s="2"/>
+      <c r="B27" s="57"/>
+      <c r="C27" s="58"/>
+      <c r="D27" s="58" t="str">
         <f>IF(G17="","",G26+G28)</f>
         <v/>
       </c>
-      <c r="E27" s="60" t="s">
+      <c r="E27" s="58" t="s">
         <v>31</v>
       </c>
-      <c r="F27" s="61"/>
-      <c r="G27" s="77" t="s">
+      <c r="F27" s="59"/>
+      <c r="G27" s="114" t="s">
         <v>50</v>
       </c>
-      <c r="H27" s="78"/>
-      <c r="I27" s="78"/>
-      <c r="J27" s="78"/>
-      <c r="K27" s="78"/>
-      <c r="L27" s="78"/>
-      <c r="M27" s="79"/>
-      <c r="O27" s="39" t="s">
+      <c r="H27" s="115"/>
+      <c r="I27" s="115"/>
+      <c r="J27" s="115"/>
+      <c r="K27" s="115"/>
+      <c r="L27" s="115"/>
+      <c r="M27" s="116"/>
+      <c r="O27" s="37" t="s">
         <v>51</v>
       </c>
-      <c r="P27" s="40"/>
-      <c r="Q27" s="40"/>
-      <c r="R27" s="80">
-        <v>24.19</v>
-      </c>
-      <c r="S27" s="81"/>
-      <c r="T27" s="41" t="s">
+      <c r="P27" s="38"/>
+      <c r="Q27" s="38"/>
+      <c r="R27" s="117"/>
+      <c r="S27" s="118"/>
+      <c r="T27" s="39" t="s">
         <v>31</v>
       </c>
-      <c r="U27" s="74"/>
-    </row>
-    <row r="28" spans="1:21" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A28" s="4"/>
-      <c r="B28" s="42"/>
-      <c r="C28" s="43"/>
-      <c r="D28" s="43"/>
-      <c r="E28" s="43"/>
-      <c r="F28" s="44"/>
-      <c r="G28" s="82">
+      <c r="U27" s="111"/>
+    </row>
+    <row r="28" spans="1:21" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A28" s="2"/>
+      <c r="B28" s="40"/>
+      <c r="C28" s="41"/>
+      <c r="D28" s="41"/>
+      <c r="E28" s="41"/>
+      <c r="F28" s="42"/>
+      <c r="G28" s="119">
         <f>+S23*6</f>
         <v>0</v>
       </c>
-      <c r="H28" s="83"/>
-      <c r="I28" s="83"/>
-      <c r="J28" s="83"/>
-      <c r="K28" s="83"/>
-      <c r="L28" s="69" t="s">
+      <c r="H28" s="120"/>
+      <c r="I28" s="120"/>
+      <c r="J28" s="120"/>
+      <c r="K28" s="120"/>
+      <c r="L28" s="67" t="s">
         <v>31</v>
       </c>
-      <c r="M28" s="45"/>
-      <c r="R28" s="84" t="str">
+      <c r="M28" s="43"/>
+      <c r="R28" s="121" t="str">
         <f>IF(G17="","",R27*3.6)</f>
         <v/>
       </c>
-      <c r="S28" s="85"/>
-      <c r="T28" s="46" t="s">
+      <c r="S28" s="122"/>
+      <c r="T28" s="44" t="s">
         <v>52</v>
       </c>
-      <c r="U28" s="74"/>
-    </row>
-    <row r="29" spans="1:21" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A29" s="4"/>
-      <c r="R29" s="86" t="str">
+      <c r="U28" s="111"/>
+    </row>
+    <row r="29" spans="1:21" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A29" s="2"/>
+      <c r="R29" s="123" t="str">
         <f>IF(G17="","",R28*24)</f>
         <v/>
       </c>
-      <c r="S29" s="83"/>
-      <c r="T29" s="47" t="s">
+      <c r="S29" s="120"/>
+      <c r="T29" s="45" t="s">
         <v>53</v>
       </c>
-      <c r="U29" s="74"/>
-    </row>
-    <row r="30" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A30" s="4"/>
-      <c r="R30" s="48" t="s">
+      <c r="U29" s="111"/>
+    </row>
+    <row r="30" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="A30" s="2"/>
+      <c r="R30" s="46" t="s">
         <v>54</v>
       </c>
-      <c r="U30" s="74"/>
-    </row>
-    <row r="31" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A31" s="49"/>
-      <c r="B31" s="50"/>
-      <c r="C31" s="50"/>
-      <c r="D31" s="50"/>
-      <c r="E31" s="50"/>
-      <c r="F31" s="50"/>
-      <c r="G31" s="50"/>
-      <c r="H31" s="50"/>
-      <c r="I31" s="50"/>
-      <c r="J31" s="50"/>
-      <c r="K31" s="50"/>
-      <c r="L31" s="50"/>
-      <c r="M31" s="50"/>
-      <c r="N31" s="50"/>
-      <c r="O31" s="50"/>
-      <c r="P31" s="50"/>
-      <c r="Q31" s="50"/>
-      <c r="R31" s="50"/>
-      <c r="S31" s="50"/>
-      <c r="T31" s="50"/>
-      <c r="U31" s="51"/>
+      <c r="U30" s="111"/>
+    </row>
+    <row r="31" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="A31" s="47"/>
+      <c r="B31" s="48"/>
+      <c r="C31" s="48"/>
+      <c r="D31" s="48"/>
+      <c r="E31" s="48"/>
+      <c r="F31" s="48"/>
+      <c r="G31" s="48"/>
+      <c r="H31" s="48"/>
+      <c r="I31" s="48"/>
+      <c r="J31" s="48"/>
+      <c r="K31" s="48"/>
+      <c r="L31" s="48"/>
+      <c r="M31" s="48"/>
+      <c r="N31" s="48"/>
+      <c r="O31" s="48"/>
+      <c r="P31" s="48"/>
+      <c r="Q31" s="48"/>
+      <c r="R31" s="48"/>
+      <c r="S31" s="48"/>
+      <c r="T31" s="48"/>
+      <c r="U31" s="49"/>
     </row>
   </sheetData>
-  <mergeCells count="32">
+  <mergeCells count="31">
     <mergeCell ref="E4:I4"/>
     <mergeCell ref="J4:M4"/>
     <mergeCell ref="N4:O4"/>
@@ -1893,7 +2551,6 @@
     <mergeCell ref="E7:G7"/>
     <mergeCell ref="J7:K7"/>
     <mergeCell ref="M7:N7"/>
-    <mergeCell ref="E9:F9"/>
     <mergeCell ref="M9:N9"/>
     <mergeCell ref="E11:F11"/>
     <mergeCell ref="M11:N11"/>
@@ -1928,8 +2585,1000 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+  <dimension ref="A1:E8"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B5" sqref="B5:B6"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="25.5546875" style="107" customWidth="1"/>
+    <col min="2" max="2" width="28.33203125" style="107" customWidth="1"/>
+    <col min="3" max="3" width="24.33203125" style="107" customWidth="1"/>
+    <col min="4" max="4" width="22.88671875" style="107" customWidth="1"/>
+    <col min="5" max="5" width="21.88671875" style="107" customWidth="1"/>
+    <col min="6" max="9" width="11.5546875" style="107" customWidth="1"/>
+    <col min="10" max="16384" width="11.5546875" style="107"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A1" s="71" t="s">
+        <v>55</v>
+      </c>
+      <c r="B1" s="159" t="s">
+        <v>56</v>
+      </c>
+      <c r="C1" s="159" t="s">
+        <v>57</v>
+      </c>
+      <c r="D1" s="159" t="s">
+        <v>58</v>
+      </c>
+      <c r="E1" s="160" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" ht="62.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A2" s="72">
+        <f>[1]Calculo!K4</f>
+        <v>50.35</v>
+      </c>
+      <c r="B2" s="149"/>
+      <c r="C2" s="149"/>
+      <c r="D2" s="149"/>
+      <c r="E2" s="153"/>
+    </row>
+    <row r="3" spans="1:5" ht="21" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="73" t="s">
+        <v>60</v>
+      </c>
+      <c r="B3" s="161">
+        <f>+resumen!G3</f>
+        <v>0</v>
+      </c>
+      <c r="C3" s="162">
+        <f>+B3/$A$2</f>
+        <v>0</v>
+      </c>
+      <c r="D3" s="163">
+        <f>+B3/1000*86400</f>
+        <v>0</v>
+      </c>
+      <c r="E3" s="164">
+        <f>+D3/$A$2</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" ht="27.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="74">
+        <f>[1]Calculo!D2</f>
+        <v>44379</v>
+      </c>
+      <c r="B4" s="149"/>
+      <c r="C4" s="149"/>
+      <c r="D4" s="149"/>
+      <c r="E4" s="153"/>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A5" s="75" t="s">
+        <v>61</v>
+      </c>
+      <c r="B5" s="148">
+        <f>[1]Calculo!B27</f>
+        <v>14.516911843442108</v>
+      </c>
+      <c r="C5" s="150">
+        <f>+B5/$A$2</f>
+        <v>0.28831999689060789</v>
+      </c>
+      <c r="D5" s="151">
+        <f>+B5/1000*86400</f>
+        <v>1254.261183273398</v>
+      </c>
+      <c r="E5" s="152">
+        <f>+D5/$A$2</f>
+        <v>24.910847731348522</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A6" s="74">
+        <f>[1]Calculo!D18</f>
+        <v>44405</v>
+      </c>
+      <c r="B6" s="149"/>
+      <c r="C6" s="149"/>
+      <c r="D6" s="149"/>
+      <c r="E6" s="153"/>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A7" s="154" t="s">
+        <v>62</v>
+      </c>
+      <c r="B7" s="156">
+        <f>+B3-B5</f>
+        <v>-14.516911843442108</v>
+      </c>
+      <c r="C7" s="157">
+        <f>+C3-C5</f>
+        <v>-0.28831999689060789</v>
+      </c>
+      <c r="D7" s="158">
+        <f>+D3-D5</f>
+        <v>-1254.261183273398</v>
+      </c>
+      <c r="E7" s="152">
+        <f>+E3-E5</f>
+        <v>-24.910847731348522</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A8" s="155"/>
+      <c r="B8" s="149"/>
+      <c r="C8" s="149"/>
+      <c r="D8" s="149"/>
+      <c r="E8" s="153"/>
+    </row>
+  </sheetData>
+  <mergeCells count="17">
+    <mergeCell ref="B1:B2"/>
+    <mergeCell ref="C1:C2"/>
+    <mergeCell ref="D1:D2"/>
+    <mergeCell ref="E1:E2"/>
+    <mergeCell ref="B3:B4"/>
+    <mergeCell ref="C3:C4"/>
+    <mergeCell ref="D3:D4"/>
+    <mergeCell ref="E3:E4"/>
+    <mergeCell ref="B5:B6"/>
+    <mergeCell ref="C5:C6"/>
+    <mergeCell ref="D5:D6"/>
+    <mergeCell ref="E5:E6"/>
+    <mergeCell ref="A7:A8"/>
+    <mergeCell ref="B7:B8"/>
+    <mergeCell ref="C7:C8"/>
+    <mergeCell ref="D7:D8"/>
+    <mergeCell ref="E7:E8"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="360" verticalDpi="360"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
+  <dimension ref="B3:I21"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E14" sqref="E14"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.44140625" defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="2" width="11.44140625" style="76" customWidth="1"/>
+    <col min="3" max="3" width="13.33203125" style="77" customWidth="1"/>
+    <col min="4" max="5" width="11.44140625" style="76" customWidth="1"/>
+    <col min="6" max="6" width="9.88671875" style="76" customWidth="1"/>
+    <col min="7" max="7" width="14.44140625" style="77" customWidth="1"/>
+    <col min="8" max="11" width="11.44140625" style="76" customWidth="1"/>
+    <col min="12" max="16384" width="11.44140625" style="76"/>
+  </cols>
+  <sheetData>
+    <row r="3" spans="2:9" ht="14.4" customHeight="1" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="4" spans="2:9" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B4" s="172" t="e">
+        <f>B7</f>
+        <v>#REF!</v>
+      </c>
+      <c r="C4" s="173"/>
+      <c r="D4" s="173"/>
+      <c r="E4" s="174"/>
+      <c r="F4" s="172">
+        <f>F7</f>
+        <v>44405</v>
+      </c>
+      <c r="G4" s="173"/>
+      <c r="H4" s="173"/>
+      <c r="I4" s="174"/>
+    </row>
+    <row r="5" spans="2:9" ht="14.4" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B5" s="175" t="s">
+        <v>63</v>
+      </c>
+      <c r="C5" s="78" t="s">
+        <v>64</v>
+      </c>
+      <c r="D5" s="176" t="s">
+        <v>65</v>
+      </c>
+      <c r="E5" s="79" t="s">
+        <v>66</v>
+      </c>
+      <c r="F5" s="175" t="s">
+        <v>63</v>
+      </c>
+      <c r="G5" s="78" t="s">
+        <v>64</v>
+      </c>
+      <c r="H5" s="176" t="s">
+        <v>65</v>
+      </c>
+      <c r="I5" s="79" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="6" spans="2:9" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B6" s="155"/>
+      <c r="C6" s="78" t="s">
+        <v>67</v>
+      </c>
+      <c r="D6" s="149"/>
+      <c r="E6" s="79" t="s">
+        <v>68</v>
+      </c>
+      <c r="F6" s="155"/>
+      <c r="G6" s="78" t="s">
+        <v>67</v>
+      </c>
+      <c r="H6" s="149"/>
+      <c r="I6" s="79" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="7" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B7" s="80" t="e">
+        <f>+Presiones!#REF!</f>
+        <v>#REF!</v>
+      </c>
+      <c r="C7" s="81">
+        <f>+Data6!D3</f>
+        <v>0</v>
+      </c>
+      <c r="D7" s="82">
+        <f>+Data6!B3</f>
+        <v>0</v>
+      </c>
+      <c r="E7" s="165">
+        <f>+resumen!D3</f>
+        <v>0</v>
+      </c>
+      <c r="F7" s="83">
+        <v>44405</v>
+      </c>
+      <c r="G7" s="84">
+        <v>6613.4640000000027</v>
+      </c>
+      <c r="H7" s="85">
+        <v>21.42</v>
+      </c>
+      <c r="I7" s="165">
+        <f>E7</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B8" s="80" t="e">
+        <f>+Presiones!#REF!</f>
+        <v>#REF!</v>
+      </c>
+      <c r="C8" s="81">
+        <f>+Data6!D4</f>
+        <v>0</v>
+      </c>
+      <c r="D8" s="82">
+        <f>+Data6!B4</f>
+        <v>0</v>
+      </c>
+      <c r="E8" s="166"/>
+      <c r="F8" s="83">
+        <v>44406</v>
+      </c>
+      <c r="G8" s="84">
+        <v>6554.5800000000008</v>
+      </c>
+      <c r="H8" s="85">
+        <v>21.73</v>
+      </c>
+      <c r="I8" s="166"/>
+    </row>
+    <row r="9" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B9" s="80" t="e">
+        <f>+Presiones!#REF!</f>
+        <v>#REF!</v>
+      </c>
+      <c r="C9" s="81">
+        <f>+Data6!D5</f>
+        <v>0</v>
+      </c>
+      <c r="D9" s="82">
+        <f>+Data6!B5</f>
+        <v>0</v>
+      </c>
+      <c r="E9" s="166"/>
+      <c r="F9" s="83">
+        <v>44407</v>
+      </c>
+      <c r="G9" s="84">
+        <v>6407.6039999999985</v>
+      </c>
+      <c r="H9" s="85">
+        <v>21.05</v>
+      </c>
+      <c r="I9" s="166"/>
+    </row>
+    <row r="10" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B10" s="80" t="e">
+        <f>+Presiones!#REF!</f>
+        <v>#REF!</v>
+      </c>
+      <c r="C10" s="81">
+        <f>+Data6!D6</f>
+        <v>0</v>
+      </c>
+      <c r="D10" s="82">
+        <f>+Data6!B6</f>
+        <v>0</v>
+      </c>
+      <c r="E10" s="166"/>
+      <c r="F10" s="83">
+        <v>44408</v>
+      </c>
+      <c r="G10" s="84">
+        <v>7004.1000000000067</v>
+      </c>
+      <c r="H10" s="85">
+        <v>20.59</v>
+      </c>
+      <c r="I10" s="166"/>
+    </row>
+    <row r="11" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B11" s="80" t="e">
+        <f>+Presiones!#REF!</f>
+        <v>#REF!</v>
+      </c>
+      <c r="C11" s="81">
+        <f>+Data6!D7</f>
+        <v>0</v>
+      </c>
+      <c r="D11" s="82">
+        <f>+Data6!B7</f>
+        <v>0</v>
+      </c>
+      <c r="E11" s="166"/>
+      <c r="F11" s="83">
+        <v>44409</v>
+      </c>
+      <c r="G11" s="84">
+        <v>6889.9319999999998</v>
+      </c>
+      <c r="H11" s="85">
+        <v>22.26</v>
+      </c>
+      <c r="I11" s="166"/>
+    </row>
+    <row r="12" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B12" s="80" t="e">
+        <f>+Presiones!#REF!</f>
+        <v>#REF!</v>
+      </c>
+      <c r="C12" s="81">
+        <f>+Data6!D8</f>
+        <v>0</v>
+      </c>
+      <c r="D12" s="82">
+        <f>+Data6!B8</f>
+        <v>0</v>
+      </c>
+      <c r="E12" s="166"/>
+      <c r="F12" s="83">
+        <v>44410</v>
+      </c>
+      <c r="G12" s="84">
+        <v>6647.8589999999986</v>
+      </c>
+      <c r="H12" s="85">
+        <v>21.48</v>
+      </c>
+      <c r="I12" s="166"/>
+    </row>
+    <row r="13" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B13" s="80" t="str">
+        <f>[1]data!Y12</f>
+        <v/>
+      </c>
+      <c r="C13" s="81"/>
+      <c r="D13" s="82" t="str">
+        <f>[1]data!AQ12</f>
+        <v/>
+      </c>
+      <c r="E13" s="153"/>
+      <c r="F13" s="83">
+        <v>44411</v>
+      </c>
+      <c r="G13" s="84">
+        <v>6476.4450000000033</v>
+      </c>
+      <c r="H13" s="85">
+        <v>20.89</v>
+      </c>
+      <c r="I13" s="153"/>
+    </row>
+    <row r="14" spans="2:9" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B14" s="167" t="s">
+        <v>69</v>
+      </c>
+      <c r="C14" s="168"/>
+      <c r="D14" s="169"/>
+      <c r="E14" s="86">
+        <f>+AVERAGE(D7:D13)</f>
+        <v>0</v>
+      </c>
+      <c r="F14" s="87" t="s">
+        <v>69</v>
+      </c>
+      <c r="G14" s="88"/>
+      <c r="I14" s="86">
+        <f>+AVERAGE(H7:H13)</f>
+        <v>21.345714285714287</v>
+      </c>
+    </row>
+    <row r="15" spans="2:9" ht="14.4" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B15" s="170" t="s">
+        <v>70</v>
+      </c>
+      <c r="C15" s="120"/>
+      <c r="D15" s="171"/>
+      <c r="E15" s="89">
+        <f>+AVERAGE(C7:C13)</f>
+        <v>0</v>
+      </c>
+      <c r="F15" s="90" t="s">
+        <v>70</v>
+      </c>
+      <c r="G15" s="91"/>
+      <c r="H15" s="92"/>
+      <c r="I15" s="89">
+        <f>+AVERAGE(G7:G13)</f>
+        <v>6656.2834285714298</v>
+      </c>
+    </row>
+    <row r="21" ht="16.5" customHeight="1" x14ac:dyDescent="0.25"/>
+  </sheetData>
+  <mergeCells count="10">
+    <mergeCell ref="E7:E13"/>
+    <mergeCell ref="I7:I13"/>
+    <mergeCell ref="B14:D14"/>
+    <mergeCell ref="B15:D15"/>
+    <mergeCell ref="B4:E4"/>
+    <mergeCell ref="F4:I4"/>
+    <mergeCell ref="B5:B6"/>
+    <mergeCell ref="D5:D6"/>
+    <mergeCell ref="F5:F6"/>
+    <mergeCell ref="H5:H6"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="360" verticalDpi="360"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
+  <dimension ref="E16:Q45"/>
+  <sheetViews>
+    <sheetView topLeftCell="C13" workbookViewId="0">
+      <selection activeCell="J20" sqref="J20:J25"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.44140625" defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="4" width="11.44140625" style="76" customWidth="1"/>
+    <col min="5" max="16384" width="11.44140625" style="76"/>
+  </cols>
+  <sheetData>
+    <row r="16" ht="14.4" customHeight="1" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="17" spans="5:17" ht="14.4" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="E17" s="93" t="s">
+        <v>71</v>
+      </c>
+      <c r="F17" s="181" t="e">
+        <f>E20</f>
+        <v>#REF!</v>
+      </c>
+      <c r="G17" s="118"/>
+      <c r="H17" s="118"/>
+      <c r="I17" s="118"/>
+      <c r="J17" s="118"/>
+      <c r="K17" s="136"/>
+      <c r="L17" s="94" t="s">
+        <v>71</v>
+      </c>
+      <c r="M17" s="182">
+        <f>L20</f>
+        <v>44405</v>
+      </c>
+      <c r="N17" s="118"/>
+      <c r="O17" s="118"/>
+      <c r="P17" s="136"/>
+    </row>
+    <row r="18" spans="5:17" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="E18" s="184" t="s">
+        <v>72</v>
+      </c>
+      <c r="F18" s="183" t="s">
+        <v>73</v>
+      </c>
+      <c r="G18" s="173"/>
+      <c r="H18" s="174"/>
+      <c r="I18" s="183" t="s">
+        <v>74</v>
+      </c>
+      <c r="J18" s="173"/>
+      <c r="K18" s="174"/>
+      <c r="L18" s="185" t="s">
+        <v>72</v>
+      </c>
+      <c r="M18" s="183" t="s">
+        <v>73</v>
+      </c>
+      <c r="N18" s="174"/>
+      <c r="O18" s="183" t="s">
+        <v>74</v>
+      </c>
+      <c r="P18" s="174"/>
+      <c r="Q18" s="97"/>
+    </row>
+    <row r="19" spans="5:17" x14ac:dyDescent="0.25">
+      <c r="E19" s="155"/>
+      <c r="F19" s="98" t="s">
+        <v>75</v>
+      </c>
+      <c r="G19" s="98" t="s">
+        <v>76</v>
+      </c>
+      <c r="H19" s="98"/>
+      <c r="I19" s="98" t="s">
+        <v>75</v>
+      </c>
+      <c r="J19" s="99" t="s">
+        <v>76</v>
+      </c>
+      <c r="K19" s="99"/>
+      <c r="L19" s="155"/>
+      <c r="M19" s="98" t="s">
+        <v>75</v>
+      </c>
+      <c r="N19" s="98" t="s">
+        <v>76</v>
+      </c>
+      <c r="O19" s="98" t="s">
+        <v>75</v>
+      </c>
+      <c r="P19" s="99" t="s">
+        <v>76</v>
+      </c>
+      <c r="Q19" s="97"/>
+    </row>
+    <row r="20" spans="5:17" x14ac:dyDescent="0.25">
+      <c r="E20" s="95" t="e">
+        <f>+Presiones!#REF!</f>
+        <v>#REF!</v>
+      </c>
+      <c r="F20" s="100" t="e">
+        <f>+Presiones!#REF!</f>
+        <v>#REF!</v>
+      </c>
+      <c r="G20" s="100" t="e">
+        <f>+Presiones!#REF!</f>
+        <v>#REF!</v>
+      </c>
+      <c r="H20" s="100"/>
+      <c r="I20" s="100" t="e">
+        <f>+Presiones!#REF!</f>
+        <v>#REF!</v>
+      </c>
+      <c r="J20" s="100" t="e">
+        <f>+Presiones!#REF!</f>
+        <v>#REF!</v>
+      </c>
+      <c r="K20" s="100"/>
+      <c r="L20" s="96">
+        <f>'[1]T( QMN)'!F7</f>
+        <v>44405</v>
+      </c>
+      <c r="M20" s="100">
+        <v>19.32452830188679</v>
+      </c>
+      <c r="N20" s="100">
+        <v>34.494188679245298</v>
+      </c>
+      <c r="O20" s="100">
+        <v>16.833333333333329</v>
+      </c>
+      <c r="P20" s="101">
+        <v>31.384583333333339</v>
+      </c>
+      <c r="Q20" s="97"/>
+    </row>
+    <row r="21" spans="5:17" x14ac:dyDescent="0.25">
+      <c r="E21" s="95" t="e">
+        <f>+Presiones!#REF!</f>
+        <v>#REF!</v>
+      </c>
+      <c r="F21" s="100" t="e">
+        <f>+Presiones!#REF!</f>
+        <v>#REF!</v>
+      </c>
+      <c r="G21" s="100" t="e">
+        <f>+Presiones!#REF!</f>
+        <v>#REF!</v>
+      </c>
+      <c r="H21" s="100"/>
+      <c r="I21" s="100" t="e">
+        <f>+Presiones!#REF!</f>
+        <v>#REF!</v>
+      </c>
+      <c r="J21" s="100" t="e">
+        <f>+Presiones!#REF!</f>
+        <v>#REF!</v>
+      </c>
+      <c r="K21" s="100"/>
+      <c r="L21" s="96">
+        <f>'[1]T( QMN)'!F8</f>
+        <v>44406</v>
+      </c>
+      <c r="M21" s="100">
+        <v>18.996527777777779</v>
+      </c>
+      <c r="N21" s="100">
+        <v>33.978576388888861</v>
+      </c>
+      <c r="O21" s="100">
+        <v>16</v>
+      </c>
+      <c r="P21" s="101">
+        <v>29.655000000000001</v>
+      </c>
+      <c r="Q21" s="97"/>
+    </row>
+    <row r="22" spans="5:17" x14ac:dyDescent="0.25">
+      <c r="E22" s="95" t="e">
+        <f>+Presiones!#REF!</f>
+        <v>#REF!</v>
+      </c>
+      <c r="F22" s="100" t="e">
+        <f>+Presiones!#REF!</f>
+        <v>#REF!</v>
+      </c>
+      <c r="G22" s="100" t="e">
+        <f>+Presiones!#REF!</f>
+        <v>#REF!</v>
+      </c>
+      <c r="H22" s="100"/>
+      <c r="I22" s="100" t="e">
+        <f>+Presiones!#REF!</f>
+        <v>#REF!</v>
+      </c>
+      <c r="J22" s="100" t="e">
+        <f>+Presiones!#REF!</f>
+        <v>#REF!</v>
+      </c>
+      <c r="K22" s="100"/>
+      <c r="L22" s="96">
+        <f>'[1]T( QMN)'!F9</f>
+        <v>44407</v>
+      </c>
+      <c r="M22" s="100">
+        <v>19.208333333333329</v>
+      </c>
+      <c r="N22" s="100">
+        <v>34.422534722222203</v>
+      </c>
+      <c r="O22" s="100">
+        <v>16</v>
+      </c>
+      <c r="P22" s="101">
+        <v>30.488</v>
+      </c>
+      <c r="Q22" s="97"/>
+    </row>
+    <row r="23" spans="5:17" x14ac:dyDescent="0.25">
+      <c r="E23" s="95" t="e">
+        <f>+Presiones!#REF!</f>
+        <v>#REF!</v>
+      </c>
+      <c r="F23" s="100" t="e">
+        <f>+Presiones!#REF!</f>
+        <v>#REF!</v>
+      </c>
+      <c r="G23" s="100" t="e">
+        <f>+Presiones!#REF!</f>
+        <v>#REF!</v>
+      </c>
+      <c r="H23" s="100"/>
+      <c r="I23" s="100" t="e">
+        <f>+Presiones!#REF!</f>
+        <v>#REF!</v>
+      </c>
+      <c r="J23" s="100" t="e">
+        <f>+Presiones!#REF!</f>
+        <v>#REF!</v>
+      </c>
+      <c r="K23" s="100"/>
+      <c r="L23" s="96">
+        <f>'[1]T( QMN)'!F10</f>
+        <v>44408</v>
+      </c>
+      <c r="M23" s="100">
+        <v>19.416666666666671</v>
+      </c>
+      <c r="N23" s="100">
+        <v>34.317395833333343</v>
+      </c>
+      <c r="O23" s="100">
+        <v>17</v>
+      </c>
+      <c r="P23" s="101">
+        <v>31.494</v>
+      </c>
+      <c r="Q23" s="97"/>
+    </row>
+    <row r="24" spans="5:17" x14ac:dyDescent="0.25">
+      <c r="E24" s="95" t="e">
+        <f>+Presiones!#REF!</f>
+        <v>#REF!</v>
+      </c>
+      <c r="F24" s="100" t="e">
+        <f>+Presiones!#REF!</f>
+        <v>#REF!</v>
+      </c>
+      <c r="G24" s="100" t="e">
+        <f>+Presiones!#REF!</f>
+        <v>#REF!</v>
+      </c>
+      <c r="H24" s="100"/>
+      <c r="I24" s="100" t="e">
+        <f>+Presiones!#REF!</f>
+        <v>#REF!</v>
+      </c>
+      <c r="J24" s="100" t="e">
+        <f>+Presiones!#REF!</f>
+        <v>#REF!</v>
+      </c>
+      <c r="K24" s="100"/>
+      <c r="L24" s="96">
+        <f>'[1]T( QMN)'!F11</f>
+        <v>44409</v>
+      </c>
+      <c r="M24" s="100">
+        <v>19.357638888888889</v>
+      </c>
+      <c r="N24" s="100">
+        <v>34.299722222222229</v>
+      </c>
+      <c r="O24" s="100">
+        <v>16.32</v>
+      </c>
+      <c r="P24" s="101">
+        <v>31.016400000000001</v>
+      </c>
+      <c r="Q24" s="97"/>
+    </row>
+    <row r="25" spans="5:17" x14ac:dyDescent="0.25">
+      <c r="E25" s="95" t="e">
+        <f>+Presiones!#REF!</f>
+        <v>#REF!</v>
+      </c>
+      <c r="F25" s="100" t="e">
+        <f>+Presiones!#REF!</f>
+        <v>#REF!</v>
+      </c>
+      <c r="G25" s="100" t="e">
+        <f>+Presiones!#REF!</f>
+        <v>#REF!</v>
+      </c>
+      <c r="H25" s="100"/>
+      <c r="I25" s="100" t="e">
+        <f>+Presiones!#REF!</f>
+        <v>#REF!</v>
+      </c>
+      <c r="J25" s="100" t="e">
+        <f>+Presiones!#REF!</f>
+        <v>#REF!</v>
+      </c>
+      <c r="K25" s="100"/>
+      <c r="L25" s="96">
+        <f>'[1]T( QMN)'!F12</f>
+        <v>44410</v>
+      </c>
+      <c r="M25" s="100">
+        <v>19.229166666666671</v>
+      </c>
+      <c r="N25" s="100">
+        <v>34.427395833333343</v>
+      </c>
+      <c r="O25" s="100">
+        <v>16.04</v>
+      </c>
+      <c r="P25" s="101">
+        <v>30.810400000000001</v>
+      </c>
+      <c r="Q25" s="97"/>
+    </row>
+    <row r="26" spans="5:17" x14ac:dyDescent="0.25">
+      <c r="E26" s="95" t="str">
+        <f>[1]data!Y12</f>
+        <v/>
+      </c>
+      <c r="F26" s="100"/>
+      <c r="G26" s="100"/>
+      <c r="H26" s="100"/>
+      <c r="I26" s="100" t="str">
+        <f>[1]data!AA12</f>
+        <v/>
+      </c>
+      <c r="J26" s="100" t="str">
+        <f>[1]data!AB12</f>
+        <v/>
+      </c>
+      <c r="K26" s="101"/>
+      <c r="L26" s="96">
+        <f>'[1]T( QMN)'!F13</f>
+        <v>44411</v>
+      </c>
+      <c r="M26" s="100">
+        <v>19.440972222222221</v>
+      </c>
+      <c r="N26" s="100">
+        <v>34.800590277777793</v>
+      </c>
+      <c r="O26" s="100">
+        <v>17</v>
+      </c>
+      <c r="P26" s="101">
+        <v>31.6812</v>
+      </c>
+      <c r="Q26" s="97"/>
+    </row>
+    <row r="27" spans="5:17" x14ac:dyDescent="0.25">
+      <c r="E27" s="102" t="s">
+        <v>77</v>
+      </c>
+      <c r="F27" s="103" t="e">
+        <f>+AVERAGE(F20:F26)</f>
+        <v>#REF!</v>
+      </c>
+      <c r="G27" s="103" t="e">
+        <f>+AVERAGE(G20:G26)</f>
+        <v>#REF!</v>
+      </c>
+      <c r="H27" s="103"/>
+      <c r="I27" s="103" t="e">
+        <f>+AVERAGE(I20:I26)</f>
+        <v>#REF!</v>
+      </c>
+      <c r="J27" s="104" t="e">
+        <f>+AVERAGE(J20:J26)</f>
+        <v>#REF!</v>
+      </c>
+      <c r="K27" s="104"/>
+      <c r="L27" s="102" t="s">
+        <v>77</v>
+      </c>
+      <c r="M27" s="103">
+        <f>+AVERAGE(M20:M26)</f>
+        <v>19.281976265348906</v>
+      </c>
+      <c r="N27" s="103">
+        <f>+AVERAGE(N20:N26)</f>
+        <v>34.391486279574721</v>
+      </c>
+      <c r="O27" s="103">
+        <f>+AVERAGE(O20:O26)</f>
+        <v>16.456190476190475</v>
+      </c>
+      <c r="P27" s="104">
+        <f>+AVERAGE(P20:P26)</f>
+        <v>30.932797619047619</v>
+      </c>
+      <c r="Q27" s="97"/>
+    </row>
+    <row r="28" spans="5:17" ht="14.4" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="E28" s="105" t="s">
+        <v>77</v>
+      </c>
+      <c r="F28" s="177" t="e">
+        <f>AVERAGE(F27:H27)</f>
+        <v>#REF!</v>
+      </c>
+      <c r="G28" s="178"/>
+      <c r="H28" s="179"/>
+      <c r="I28" s="180" t="e">
+        <f>+AVERAGE(I27:K27)</f>
+        <v>#REF!</v>
+      </c>
+      <c r="J28" s="178"/>
+      <c r="K28" s="179"/>
+      <c r="L28" s="105" t="s">
+        <v>77</v>
+      </c>
+      <c r="M28" s="180">
+        <f>+AVERAGE(M27:N27)</f>
+        <v>26.836731272461812</v>
+      </c>
+      <c r="N28" s="179"/>
+      <c r="O28" s="180">
+        <f>+AVERAGE(O27:P27)</f>
+        <v>23.694494047619045</v>
+      </c>
+      <c r="P28" s="179"/>
+      <c r="Q28" s="97"/>
+    </row>
+    <row r="45" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="F45" s="76" t="s">
+        <v>78</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="12">
+    <mergeCell ref="E18:E19"/>
+    <mergeCell ref="F18:H18"/>
+    <mergeCell ref="I18:K18"/>
+    <mergeCell ref="L18:L19"/>
+    <mergeCell ref="M18:N18"/>
+    <mergeCell ref="F28:H28"/>
+    <mergeCell ref="I28:K28"/>
+    <mergeCell ref="M28:N28"/>
+    <mergeCell ref="O28:P28"/>
+    <mergeCell ref="F17:K17"/>
+    <mergeCell ref="M17:P17"/>
+    <mergeCell ref="O18:P18"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetData/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetData/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E12" sqref="E12"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>